--- a/Data/HSP.xlsx
+++ b/Data/HSP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="275">
   <si>
     <t>ticker</t>
   </si>
@@ -836,6 +836,9 @@
   </si>
   <si>
     <t>2016-08-12</t>
+  </si>
+  <si>
+    <t>2016-08-15</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:G269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7360,6 +7363,29 @@
         <v>33250.05</v>
       </c>
     </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269" t="s">
+        <v>274</v>
+      </c>
+      <c r="D269">
+        <v>33181.26</v>
+      </c>
+      <c r="E269">
+        <v>33181.26</v>
+      </c>
+      <c r="F269">
+        <v>33387.35</v>
+      </c>
+      <c r="G269">
+        <v>33245.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/HSP.xlsx
+++ b/Data/HSP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="276">
   <si>
     <t>ticker</t>
   </si>
@@ -839,6 +839,9 @@
   </si>
   <si>
     <t>2016-08-15</t>
+  </si>
+  <si>
+    <t>2016-08-16</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G269"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7386,6 +7389,29 @@
         <v>33245.99</v>
       </c>
     </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270" t="s">
+        <v>275</v>
+      </c>
+      <c r="D270">
+        <v>33260.47</v>
+      </c>
+      <c r="E270">
+        <v>33092.83</v>
+      </c>
+      <c r="F270">
+        <v>33346.08</v>
+      </c>
+      <c r="G270">
+        <v>33196.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/HSP.xlsx
+++ b/Data/HSP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="277">
   <si>
     <t>ticker</t>
   </si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>2016-08-16</t>
+  </si>
+  <si>
+    <t>2016-08-17</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G270"/>
+  <dimension ref="A1:G271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7412,6 +7415,29 @@
         <v>33196.41</v>
       </c>
     </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271" t="s">
+        <v>276</v>
+      </c>
+      <c r="D271">
+        <v>33265.93</v>
+      </c>
+      <c r="E271">
+        <v>32981.98</v>
+      </c>
+      <c r="F271">
+        <v>33282.71</v>
+      </c>
+      <c r="G271">
+        <v>33046.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
